--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -5,15 +5,16 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caoxuanphong/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caoxuanphong/Documents/PROJECT/javascript-learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14100" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14100" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Khoá học</t>
   </si>
@@ -79,6 +80,42 @@
   </si>
   <si>
     <t>Nội dung</t>
+  </si>
+  <si>
+    <t>JavaScript nâng cao</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>Date time</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>Objects</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Json</t>
+  </si>
+  <si>
+    <t>Regular Expression</t>
+  </si>
+  <si>
+    <t>Exception Hanlder</t>
+  </si>
+  <si>
+    <t>Ternary</t>
   </si>
 </sst>
 </file>
@@ -94,7 +131,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,6 +150,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -187,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -212,6 +255,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,7 +544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -641,4 +694,116 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="86.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="3"/>
+      <c r="C2" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="11">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="11">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="11">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="11">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="11">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="11">
+        <v>7</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="11">
+        <v>8</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="11">
+        <v>9</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="11">
+        <v>10</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="11">
+        <v>11</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Khoá học</t>
   </si>
@@ -106,9 +106,6 @@
     <t>Number</t>
   </si>
   <si>
-    <t>Json</t>
-  </si>
-  <si>
     <t>Regular Expression</t>
   </si>
   <si>
@@ -116,6 +113,12 @@
   </si>
   <si>
     <t>Ternary</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>Json &amp; Json Data</t>
   </si>
 </sst>
 </file>
@@ -698,10 +701,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C13"/>
+  <dimension ref="B2:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -720,7 +723,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
@@ -776,7 +779,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.2">
@@ -784,7 +787,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.2">
@@ -792,7 +795,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.2">
@@ -800,7 +803,15 @@
         <v>11</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="11">
+        <v>12</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14100" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>Khoá học</t>
   </si>
@@ -58,27 +58,12 @@
     <t>Javascript nâng cao</t>
   </si>
   <si>
-    <t>Database - MYSQL</t>
-  </si>
-  <si>
-    <t>Linux cơ bản: Để làm việc trên môi trường server linux</t>
-  </si>
-  <si>
     <t>Javascript cơ bản &amp; Logic cơ bản</t>
   </si>
   <si>
-    <t>Mạng cơ bản</t>
-  </si>
-  <si>
-    <t>Nodejs</t>
-  </si>
-  <si>
     <t>Thời gian</t>
   </si>
   <si>
-    <t>200h</t>
-  </si>
-  <si>
     <t>Nội dung</t>
   </si>
   <si>
@@ -112,20 +97,73 @@
     <t>Exception Hanlder</t>
   </si>
   <si>
-    <t>Ternary</t>
-  </si>
-  <si>
     <t>Random</t>
   </si>
   <si>
     <t>Json &amp; Json Data</t>
+  </si>
+  <si>
+    <t>Bài Tập</t>
+  </si>
+  <si>
+    <t>Ternary (1 loại if-else thu gọn)</t>
+  </si>
+  <si>
+    <t>https://www.w3resource.com/javascript-exercises/</t>
+  </si>
+  <si>
+    <t>8/1/2018 -&gt; 14/1/2018 (1 weeks)</t>
+  </si>
+  <si>
+    <t>25/12/2017 -&gt; 7/1/2018 (1 weeks)</t>
+  </si>
+  <si>
+    <t>Bài tập 122-310 (Lọc bớt bài tập ra): Cỡ 50 bài thôi
+https://www.w3resource.com/javascript-exercises/javascript-array-exercises.php</t>
+  </si>
+  <si>
+    <t>15/1/2018 -&gt; 21/1/2018 (1 weeks)</t>
+  </si>
+  <si>
+    <t>2 tuần</t>
+  </si>
+  <si>
+    <t>3 tuần</t>
+  </si>
+  <si>
+    <t>Database: MYSQL</t>
+  </si>
+  <si>
+    <t>Mạng máy tính cơ bản</t>
+  </si>
+  <si>
+    <t>Linux cơ bản</t>
+  </si>
+  <si>
+    <t>Node js: Lý thuyết</t>
+  </si>
+  <si>
+    <t>Node js: Project thực tế</t>
+  </si>
+  <si>
+    <t>4 tuần</t>
+  </si>
+  <si>
+    <t>Tổng cộng</t>
+  </si>
+  <si>
+    <t>20 tuần
+ (~4 tháng)</t>
+  </si>
+  <si>
+    <t>13/12/2017 - 13/4/2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -133,8 +171,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,6 +218,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -233,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -261,13 +326,70 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:D10"/>
+  <dimension ref="B4:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -556,72 +678,116 @@
     <col min="3" max="3" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="5">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="5">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D6" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="5">
         <v>3</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C7" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="5">
         <v>4</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C8" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="5">
         <v>5</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C9" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="5">
         <v>6</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="2"/>
+      <c r="C10" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="5">
+        <v>7</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C13" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="32"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C14" s="32"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:F14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -648,7 +814,7 @@
     </row>
     <row r="5" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D5" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>4</v>
@@ -701,120 +867,171 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C14"/>
+  <dimension ref="B2:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="86.83203125" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" customWidth="1"/>
+    <col min="4" max="5" width="75.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="3"/>
       <c r="C2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="26">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="26">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="26">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="25">
+        <v>4</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="25">
+        <v>5</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="27"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="25">
+        <v>6</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="11">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="11">
-        <v>2</v>
-      </c>
-      <c r="C4" s="13" t="s">
+      <c r="D8" s="18"/>
+      <c r="E8" s="27"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="25">
+        <v>7</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="27"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="25">
+        <v>8</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="27"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="24">
+        <v>9</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="11">
-        <v>3</v>
-      </c>
-      <c r="C5" s="13" t="s">
+      <c r="D11" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="24">
+        <v>10</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="28"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="24">
+        <v>11</v>
+      </c>
+      <c r="C13" s="20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="11">
-        <v>4</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="11">
-        <v>5</v>
-      </c>
-      <c r="C7" s="13" t="s">
+      <c r="D13" s="22"/>
+      <c r="E13" s="28"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="24">
+        <v>12</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="11">
-        <v>6</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="11">
-        <v>7</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="11">
-        <v>8</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="11">
-        <v>9</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B12" s="11">
-        <v>10</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B13" s="11">
-        <v>11</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B14" s="11">
-        <v>12</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="28"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="E6:E10"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>